--- a/Data/Input/FundsDistributions_TestCaseV1.0 - Copy.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV1.0 - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FederalBotFactory\FundDistributions\3. Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465DF99A-9BAD-41DD-9CDC-239E1F50CF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF2A446-A5BE-49AD-B288-65084D64E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>Budget Level</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>Approtionment</t>
+  </si>
+  <si>
+    <t>Demo 7</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +657,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -940,6 +946,154 @@
       </c>
       <c r="W5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44064</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>2019</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>251000</v>
+      </c>
+      <c r="Q6">
+        <v>4450000000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44842</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44090</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>2020</v>
+      </c>
+      <c r="J7">
+        <v>1200000115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>210000</v>
+      </c>
+      <c r="Q7">
+        <v>4610000010</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
